--- a/stats_test_set.xlsx
+++ b/stats_test_set.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12435"/>
+    <workbookView windowHeight="18240" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="190">
   <si>
     <t>lambda</t>
   </si>
@@ -39,39 +39,21 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>0.7249820759977694</t>
-  </si>
-  <si>
     <t>0.66</t>
   </si>
   <si>
-    <t>0.7244802039353143</t>
-  </si>
-  <si>
     <t>0.75</t>
   </si>
   <si>
-    <t>0.7289572213813431</t>
-  </si>
-  <si>
     <t>0.9</t>
   </si>
   <si>
-    <t>0.7257707320959134</t>
-  </si>
-  <si>
     <t>0.95</t>
   </si>
   <si>
-    <t>0.7256512387477098</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>0.7265753206404844</t>
-  </si>
-  <si>
     <t>bigram (lambda)</t>
   </si>
   <si>
@@ -108,6 +90,9 @@
     <t>znaki diakrytyczne</t>
   </si>
   <si>
+    <t>n.d.</t>
+  </si>
+  <si>
     <t>realword</t>
   </si>
   <si>
@@ -123,484 +108,481 @@
     <t>is_correct</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>0.855366</t>
   </si>
   <si>
     <t>0.748251</t>
   </si>
   <si>
+    <t>0.780069</t>
+  </si>
+  <si>
+    <t>0.564556</t>
+  </si>
+  <si>
+    <t>0.855269</t>
+  </si>
+  <si>
+    <t>0.793069</t>
+  </si>
+  <si>
+    <t>0.777778</t>
+  </si>
+  <si>
+    <t>0.775755</t>
+  </si>
+  <si>
+    <t>0.770205</t>
+  </si>
+  <si>
+    <t>0.777223</t>
+  </si>
+  <si>
+    <t>0.679212</t>
+  </si>
+  <si>
+    <t>0.707768</t>
+  </si>
+  <si>
+    <t>0.769231</t>
+  </si>
+  <si>
+    <t>0.327263</t>
+  </si>
+  <si>
+    <t>0.566140</t>
+  </si>
+  <si>
+    <t>0.746765</t>
+  </si>
+  <si>
+    <t>0.115991</t>
+  </si>
+  <si>
+    <t>0.714701</t>
+  </si>
+  <si>
+    <t>0.600579</t>
+  </si>
+  <si>
+    <t>0.500000</t>
+  </si>
+  <si>
+    <t>0.412605</t>
+  </si>
+  <si>
+    <t>0.372549</t>
+  </si>
+  <si>
+    <t>0.241124</t>
+  </si>
+  <si>
+    <t>0.214395</t>
+  </si>
+  <si>
+    <t>0.195021</t>
+  </si>
+  <si>
+    <t>0.051020</t>
+  </si>
+  <si>
+    <t>0.045098</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
     <t>0.747102</t>
   </si>
   <si>
+    <t>0.852361</t>
+  </si>
+  <si>
+    <t>0.792692</t>
+  </si>
+  <si>
+    <t>0.923077</t>
+  </si>
+  <si>
+    <t>0.568518</t>
+  </si>
+  <si>
+    <t>0.787753</t>
+  </si>
+  <si>
+    <t>0.767438</t>
+  </si>
+  <si>
+    <t>0.852386</t>
+  </si>
+  <si>
+    <t>0.679197</t>
+  </si>
+  <si>
+    <t>0.709581</t>
+  </si>
+  <si>
+    <t>0.822222</t>
+  </si>
+  <si>
+    <t>0.310731</t>
+  </si>
+  <si>
+    <t>0.564654</t>
+  </si>
+  <si>
+    <t>0.792003</t>
+  </si>
+  <si>
+    <t>0.118243</t>
+  </si>
+  <si>
+    <t>0.774431</t>
+  </si>
+  <si>
+    <t>0.747699</t>
+  </si>
+  <si>
+    <t>0.716123</t>
+  </si>
+  <si>
+    <t>0.599916</t>
+  </si>
+  <si>
+    <t>0.401261</t>
+  </si>
+  <si>
+    <t>0.228216</t>
+  </si>
+  <si>
+    <t>0.200613</t>
+  </si>
+  <si>
+    <t>0.199704</t>
+  </si>
+  <si>
+    <t>0.050340</t>
+  </si>
+  <si>
+    <t>0.037255</t>
+  </si>
+  <si>
     <t>0.75023</t>
   </si>
   <si>
+    <t>0.863271</t>
+  </si>
+  <si>
+    <t>0.802036</t>
+  </si>
+  <si>
+    <t>0.863330</t>
+  </si>
+  <si>
+    <t>0.58229</t>
+  </si>
+  <si>
+    <t>0.809164</t>
+  </si>
+  <si>
+    <t>0.770642</t>
+  </si>
+  <si>
+    <t>0.846154</t>
+  </si>
+  <si>
+    <t>0.677306</t>
+  </si>
+  <si>
+    <t>0.688957</t>
+  </si>
+  <si>
+    <t>0.813043</t>
+  </si>
+  <si>
+    <t>0.315214</t>
+  </si>
+  <si>
+    <t>0.571115</t>
+  </si>
+  <si>
+    <t>0.800000</t>
+  </si>
+  <si>
+    <t>0.116742</t>
+  </si>
+  <si>
+    <t>0.777663</t>
+  </si>
+  <si>
+    <t>0.727024</t>
+  </si>
+  <si>
+    <t>0.606370</t>
+  </si>
+  <si>
+    <t>0.441176</t>
+  </si>
+  <si>
+    <t>0.407143</t>
+  </si>
+  <si>
+    <t>0.212864</t>
+  </si>
+  <si>
+    <t>0.204142</t>
+  </si>
+  <si>
+    <t>0.190871</t>
+  </si>
+  <si>
+    <t>0.054422</t>
+  </si>
+  <si>
+    <t>0.035294</t>
+  </si>
+  <si>
     <t>0.748169</t>
   </si>
   <si>
+    <t>0.852477</t>
+  </si>
+  <si>
+    <t>0.792190</t>
+  </si>
+  <si>
+    <t>0.852549</t>
+  </si>
+  <si>
+    <t>0.571348</t>
+  </si>
+  <si>
+    <t>0.790753</t>
+  </si>
+  <si>
+    <t>0.776176</t>
+  </si>
+  <si>
+    <t>0.795457</t>
+  </si>
+  <si>
+    <t>0.680878</t>
+  </si>
+  <si>
+    <t>0.709706</t>
+  </si>
+  <si>
+    <t>0.783248</t>
+  </si>
+  <si>
+    <t>0.323620</t>
+  </si>
+  <si>
+    <t>0.569047</t>
+  </si>
+  <si>
+    <t>0.106982</t>
+  </si>
+  <si>
+    <t>0.748499</t>
+  </si>
+  <si>
+    <t>0.710992</t>
+  </si>
+  <si>
+    <t>0.615385</t>
+  </si>
+  <si>
+    <t>0.604207</t>
+  </si>
+  <si>
+    <t>0.408824</t>
+  </si>
+  <si>
+    <t>0.230769</t>
+  </si>
+  <si>
+    <t>0.201245</t>
+  </si>
+  <si>
+    <t>0.183767</t>
+  </si>
+  <si>
+    <t>0.050980</t>
+  </si>
+  <si>
+    <t>0.046259</t>
+  </si>
+  <si>
     <t>0.749227</t>
   </si>
   <si>
+    <t>0.855618</t>
+  </si>
+  <si>
+    <t>0.791842</t>
+  </si>
+  <si>
+    <t>0.563109</t>
+  </si>
+  <si>
+    <t>0.779892</t>
+  </si>
+  <si>
+    <t>0.775302</t>
+  </si>
+  <si>
+    <t>0.855646</t>
+  </si>
+  <si>
+    <t>0.680592</t>
+  </si>
+  <si>
+    <t>0.701956</t>
+  </si>
+  <si>
+    <t>0.314654</t>
+  </si>
+  <si>
+    <t>0.573570</t>
+  </si>
+  <si>
+    <t>0.783942</t>
+  </si>
+  <si>
+    <t>0.109234</t>
+  </si>
+  <si>
+    <t>0.782219</t>
+  </si>
+  <si>
+    <t>0.740630</t>
+  </si>
+  <si>
+    <t>0.709755</t>
+  </si>
+  <si>
+    <t>0.608603</t>
+  </si>
+  <si>
+    <t>0.389916</t>
+  </si>
+  <si>
+    <t>0.252959</t>
+  </si>
+  <si>
+    <t>0.209801</t>
+  </si>
+  <si>
+    <t>0.182573</t>
+  </si>
+  <si>
+    <t>0.047059</t>
+  </si>
+  <si>
+    <t>0.044218</t>
+  </si>
+  <si>
+    <t>0.016949</t>
+  </si>
+  <si>
     <t>0.749108</t>
   </si>
   <si>
+    <t>0.857409</t>
+  </si>
+  <si>
+    <t>0.794436</t>
+  </si>
+  <si>
+    <t>0.571222</t>
+  </si>
+  <si>
+    <t>0.790132</t>
+  </si>
+  <si>
+    <t>0.774428</t>
+  </si>
+  <si>
+    <t>0.857462</t>
+  </si>
+  <si>
+    <t>0.679242</t>
+  </si>
+  <si>
+    <t>0.709331</t>
+  </si>
+  <si>
+    <t>0.321659</t>
+  </si>
+  <si>
+    <t>0.567691</t>
+  </si>
+  <si>
+    <t>0.794305</t>
+  </si>
+  <si>
+    <t>0.111111</t>
+  </si>
+  <si>
+    <t>0.781484</t>
+  </si>
+  <si>
+    <t>0.747832</t>
+  </si>
+  <si>
+    <t>0.707591</t>
+  </si>
+  <si>
+    <t>0.603091</t>
+  </si>
+  <si>
+    <t>0.382353</t>
+  </si>
+  <si>
+    <t>0.221893</t>
+  </si>
+  <si>
+    <t>0.056863</t>
+  </si>
+  <si>
+    <t>0.042177</t>
+  </si>
+  <si>
     <t>0.886399</t>
   </si>
   <si>
-    <t>0.564556</t>
-  </si>
-  <si>
-    <t>0.568518</t>
-  </si>
-  <si>
-    <t>0.58229</t>
-  </si>
-  <si>
-    <t>0.571348</t>
-  </si>
-  <si>
-    <t>0.563109</t>
-  </si>
-  <si>
-    <t>0.571222</t>
+    <t>0.986113</t>
+  </si>
+  <si>
+    <t>0.932180</t>
   </si>
   <si>
     <t>0.740519</t>
   </si>
   <si>
-    <t>0.855269</t>
-  </si>
-  <si>
-    <t>0.852361</t>
-  </si>
-  <si>
-    <t>0.863271</t>
-  </si>
-  <si>
-    <t>0.852477</t>
-  </si>
-  <si>
-    <t>0.855618</t>
-  </si>
-  <si>
-    <t>0.857409</t>
-  </si>
-  <si>
-    <t>0.986113</t>
-  </si>
-  <si>
-    <t>0.775755</t>
-  </si>
-  <si>
-    <t>0.787753</t>
-  </si>
-  <si>
-    <t>0.809164</t>
-  </si>
-  <si>
-    <t>0.790753</t>
-  </si>
-  <si>
-    <t>0.779892</t>
-  </si>
-  <si>
-    <t>0.790132</t>
-  </si>
-  <si>
     <t>0.939388</t>
   </si>
   <si>
-    <t>0.679212</t>
-  </si>
-  <si>
-    <t>0.679197</t>
-  </si>
-  <si>
-    <t>0.677306</t>
-  </si>
-  <si>
-    <t>0.680878</t>
-  </si>
-  <si>
-    <t>0.680592</t>
-  </si>
-  <si>
-    <t>0.679242</t>
+    <t>0.878258</t>
   </si>
   <si>
     <t>0.822071</t>
   </si>
   <si>
-    <t>0.327263</t>
-  </si>
-  <si>
-    <t>0.310731</t>
-  </si>
-  <si>
-    <t>0.315214</t>
-  </si>
-  <si>
-    <t>0.323620</t>
-  </si>
-  <si>
-    <t>0.314654</t>
-  </si>
-  <si>
-    <t>0.321659</t>
+    <t>0.802075</t>
   </si>
   <si>
     <t>0.491734</t>
   </si>
   <si>
-    <t>0.115991</t>
-  </si>
-  <si>
-    <t>0.118243</t>
-  </si>
-  <si>
-    <t>0.116742</t>
-  </si>
-  <si>
-    <t>0.106982</t>
-  </si>
-  <si>
-    <t>0.109234</t>
-  </si>
-  <si>
-    <t>0.111111</t>
+    <t>0.750816</t>
   </si>
   <si>
     <t>0.352102</t>
-  </si>
-  <si>
-    <t>0.793069</t>
-  </si>
-  <si>
-    <t>0.792692</t>
-  </si>
-  <si>
-    <t>0.802036</t>
-  </si>
-  <si>
-    <t>0.792190</t>
-  </si>
-  <si>
-    <t>0.791842</t>
-  </si>
-  <si>
-    <t>0.794436</t>
-  </si>
-  <si>
-    <t>0.932180</t>
-  </si>
-  <si>
-    <t>0.770205</t>
-  </si>
-  <si>
-    <t>0.767438</t>
-  </si>
-  <si>
-    <t>0.770642</t>
-  </si>
-  <si>
-    <t>0.776176</t>
-  </si>
-  <si>
-    <t>0.775302</t>
-  </si>
-  <si>
-    <t>0.774428</t>
-  </si>
-  <si>
-    <t>0.878258</t>
-  </si>
-  <si>
-    <t>0.707768</t>
-  </si>
-  <si>
-    <t>0.709581</t>
-  </si>
-  <si>
-    <t>0.688957</t>
-  </si>
-  <si>
-    <t>0.709706</t>
-  </si>
-  <si>
-    <t>0.701956</t>
-  </si>
-  <si>
-    <t>0.709331</t>
-  </si>
-  <si>
-    <t>0.802075</t>
-  </si>
-  <si>
-    <t>0.566140</t>
-  </si>
-  <si>
-    <t>0.564654</t>
-  </si>
-  <si>
-    <t>0.571115</t>
-  </si>
-  <si>
-    <t>0.569047</t>
-  </si>
-  <si>
-    <t>0.573570</t>
-  </si>
-  <si>
-    <t>0.567691</t>
-  </si>
-  <si>
-    <t>0.750816</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>0.855366</t>
-  </si>
-  <si>
-    <t>0.780069</t>
-  </si>
-  <si>
-    <t>0.777778</t>
-  </si>
-  <si>
-    <t>0.777223</t>
-  </si>
-  <si>
-    <t>0.769231</t>
-  </si>
-  <si>
-    <t>0.746765</t>
-  </si>
-  <si>
-    <t>0.714701</t>
-  </si>
-  <si>
-    <t>0.600579</t>
-  </si>
-  <si>
-    <t>0.500000</t>
-  </si>
-  <si>
-    <t>0.412605</t>
-  </si>
-  <si>
-    <t>0.372549</t>
-  </si>
-  <si>
-    <t>0.241124</t>
-  </si>
-  <si>
-    <t>0.214395</t>
-  </si>
-  <si>
-    <t>0.195021</t>
-  </si>
-  <si>
-    <t>0.051020</t>
-  </si>
-  <si>
-    <t>0.045098</t>
-  </si>
-  <si>
-    <t>0.000000</t>
-  </si>
-  <si>
-    <t>0.923077</t>
-  </si>
-  <si>
-    <t>0.852386</t>
-  </si>
-  <si>
-    <t>0.822222</t>
-  </si>
-  <si>
-    <t>0.792003</t>
-  </si>
-  <si>
-    <t>0.774431</t>
-  </si>
-  <si>
-    <t>0.747699</t>
-  </si>
-  <si>
-    <t>0.716123</t>
-  </si>
-  <si>
-    <t>0.599916</t>
-  </si>
-  <si>
-    <t>0.401261</t>
-  </si>
-  <si>
-    <t>0.228216</t>
-  </si>
-  <si>
-    <t>0.200613</t>
-  </si>
-  <si>
-    <t>0.199704</t>
-  </si>
-  <si>
-    <t>0.050340</t>
-  </si>
-  <si>
-    <t>0.037255</t>
-  </si>
-  <si>
-    <t>0.863330</t>
-  </si>
-  <si>
-    <t>0.846154</t>
-  </si>
-  <si>
-    <t>0.813043</t>
-  </si>
-  <si>
-    <t>0.800000</t>
-  </si>
-  <si>
-    <t>0.777663</t>
-  </si>
-  <si>
-    <t>0.727024</t>
-  </si>
-  <si>
-    <t>0.606370</t>
-  </si>
-  <si>
-    <t>0.441176</t>
-  </si>
-  <si>
-    <t>0.407143</t>
-  </si>
-  <si>
-    <t>0.212864</t>
-  </si>
-  <si>
-    <t>0.204142</t>
-  </si>
-  <si>
-    <t>0.190871</t>
-  </si>
-  <si>
-    <t>0.054422</t>
-  </si>
-  <si>
-    <t>0.035294</t>
-  </si>
-  <si>
-    <t>0.852549</t>
-  </si>
-  <si>
-    <t>0.795457</t>
-  </si>
-  <si>
-    <t>0.783248</t>
-  </si>
-  <si>
-    <t>0.748499</t>
-  </si>
-  <si>
-    <t>0.710992</t>
-  </si>
-  <si>
-    <t>0.615385</t>
-  </si>
-  <si>
-    <t>0.604207</t>
-  </si>
-  <si>
-    <t>0.408824</t>
-  </si>
-  <si>
-    <t>0.230769</t>
-  </si>
-  <si>
-    <t>0.201245</t>
-  </si>
-  <si>
-    <t>0.183767</t>
-  </si>
-  <si>
-    <t>0.050980</t>
-  </si>
-  <si>
-    <t>0.046259</t>
-  </si>
-  <si>
-    <t>0.855646</t>
-  </si>
-  <si>
-    <t>0.783942</t>
-  </si>
-  <si>
-    <t>0.782219</t>
-  </si>
-  <si>
-    <t>0.740630</t>
-  </si>
-  <si>
-    <t>0.709755</t>
-  </si>
-  <si>
-    <t>0.608603</t>
-  </si>
-  <si>
-    <t>0.389916</t>
-  </si>
-  <si>
-    <t>0.252959</t>
-  </si>
-  <si>
-    <t>0.209801</t>
-  </si>
-  <si>
-    <t>0.182573</t>
-  </si>
-  <si>
-    <t>0.047059</t>
-  </si>
-  <si>
-    <t>0.044218</t>
-  </si>
-  <si>
-    <t>0.016949</t>
-  </si>
-  <si>
-    <t>0.857462</t>
-  </si>
-  <si>
-    <t>0.794305</t>
-  </si>
-  <si>
-    <t>0.781484</t>
-  </si>
-  <si>
-    <t>0.747832</t>
-  </si>
-  <si>
-    <t>0.707591</t>
-  </si>
-  <si>
-    <t>0.603091</t>
-  </si>
-  <si>
-    <t>0.382353</t>
-  </si>
-  <si>
-    <t>0.221893</t>
-  </si>
-  <si>
-    <t>0.056863</t>
-  </si>
-  <si>
-    <t>0.042177</t>
   </si>
   <si>
     <t>accuracy</t>
@@ -618,12 +600,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,000_);[Red]\(#,000\)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,47 +636,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -716,8 +661,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,7 +678,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,14 +701,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,7 +709,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,22 +746,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,6 +770,22 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -807,7 +798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +822,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,43 +894,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,37 +936,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,37 +960,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,19 +978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,11 +1027,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,32 +1092,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,186 +1124,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1311,11 +1302,14 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1324,7 +1318,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1332,50 +1326,41 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1696,17 +1681,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K60"/>
+  <dimension ref="A2:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="19.9" customWidth="1"/>
-    <col min="4" max="12" width="9.3"/>
+    <col min="4" max="4" width="9.3"/>
+    <col min="5" max="11" width="9.375"/>
+    <col min="12" max="12" width="9.3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -1730,8 +1717,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
+      <c r="B3" s="9">
+        <v>0.724982075997769</v>
       </c>
       <c r="C3" s="6">
         <v>26609</v>
@@ -1742,21 +1729,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.724480203935314</v>
       </c>
       <c r="C4" s="6">
         <v>26902</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:11">
+    <row r="5" ht="15.75" customHeight="1" spans="1:11">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.728957221381343</v>
       </c>
       <c r="C5" s="6">
         <v>26404</v>
@@ -1765,12 +1752,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:10">
+    <row r="6" ht="15.75" customHeight="1" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.725770732095913</v>
       </c>
       <c r="C6" s="6">
         <v>26511</v>
@@ -1787,10 +1774,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.725651238747709</v>
       </c>
       <c r="C7" s="6">
         <v>26589</v>
@@ -1798,10 +1785,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.726575320640484</v>
       </c>
       <c r="C8" s="6">
         <v>26710</v>
@@ -1810,973 +1797,1144 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="10:10">
+    <row r="9" ht="15.75" customHeight="1" spans="10:10">
       <c r="J9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" spans="9:9">
       <c r="I11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customHeight="1"/>
-    <row r="13" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" spans="1:10">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="I15" s="28">
+        <v>1</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="47.25" customHeight="1" spans="1:10">
+      <c r="A16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="26" t="s">
+      <c r="C16" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="11" t="s">
+      <c r="D16" s="16">
+        <v>0.600579</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.599916</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.60637</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.604207</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.608603</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0.603091</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0.784364</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="D17" s="16">
+        <v>0.746765</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.747699</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.727024</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.748499</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.74063</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0.747832</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0.837335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D18" s="16">
+        <v>0.714701</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.716123</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.714701</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.710992</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.709755</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0.707591</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0.848417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D19" s="16">
+        <v>0.777223</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.774431</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.777663</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.783248</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.782219</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0.781484</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0.884644</v>
+      </c>
+    </row>
+    <row r="20" ht="31.5" customHeight="1" spans="1:10">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.777778</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0.822222</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.777778</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.822222</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0.911111</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="16">
         <v>0.5</v>
       </c>
-      <c r="E15" s="12">
-        <v>0.66</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="I15" s="27">
+      <c r="E21" s="18">
         <v>1</v>
       </c>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" ht="47.25" customHeight="1" spans="1:10">
-      <c r="A16" s="13" t="s">
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.855366</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0.852386</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0.86333</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0.852549</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0.855646</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0.857462</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0.986191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="E23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="15">
-        <v>0.600579</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0.599916</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0.60637</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0.604207</v>
-      </c>
-      <c r="H16" s="17">
-        <v>0.608603</v>
-      </c>
-      <c r="I16" s="15">
-        <v>0.603091</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0.784364</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14" t="s">
+      <c r="B24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="15">
-        <v>0.746765</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.747699</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0.727024</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0.748499</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0.74063</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0.747832</v>
-      </c>
-      <c r="J17" s="17">
-        <v>0.837335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14" t="s">
+      <c r="C24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.241124</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.199704</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.204142</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.230769</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0.252959</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0.221893</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0.405325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.045098</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.037255</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.035294</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0.05098</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.047059</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0.056863</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0.098039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.412605</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.401261</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0.407143</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.408824</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0.389916</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0.407143</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0.601261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="15">
-        <v>0.714701</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0.716123</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0.714701</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0.710992</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0.709755</v>
-      </c>
-      <c r="I18" s="15">
-        <v>0.707591</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0.848417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14" t="s">
+      <c r="C28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.05102</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.05034</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0.054422</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.046259</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0.044218</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0.042177</v>
+      </c>
+      <c r="J28" s="18">
+        <v>0.272109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.195021</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0.228216</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.190871</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.201245</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.182573</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.195021</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0.443983</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0.214395</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0.200613</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0.212864</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.183767</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0.209801</v>
+      </c>
+      <c r="I30" s="18">
+        <v>0.214395</v>
+      </c>
+      <c r="J30" s="18">
+        <v>0.479326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0.016949</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
+        <v>0.186441</v>
+      </c>
+    </row>
+    <row r="32" ht="28.5" spans="1:10">
+      <c r="A32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="15">
-        <v>0.777223</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0.774431</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0.777663</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0.783248</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0.782219</v>
-      </c>
-      <c r="I19" s="15">
-        <v>0.781484</v>
-      </c>
-      <c r="J19" s="17">
-        <v>0.884644</v>
-      </c>
-    </row>
-    <row r="20" ht="31.5" customHeight="1" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="C32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0.372549</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0.372549</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0.441176</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0.372549</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0.372549</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0.382353</v>
+      </c>
+      <c r="J32" s="18">
+        <v>0.441176</v>
+      </c>
+    </row>
+    <row r="33" ht="28.5" spans="1:10">
+      <c r="A33" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="15">
-        <v>0.777778</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.822222</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0.777778</v>
-      </c>
-      <c r="H20" s="17">
-        <v>0.822222</v>
-      </c>
-      <c r="I20" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0.911111</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="B33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0.769231</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0.923077</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0.846154</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0.615385</v>
+      </c>
+      <c r="H33" s="18">
         <v>1</v>
       </c>
-      <c r="F21" s="17">
+      <c r="I33" s="16">
+        <v>0.923077</v>
+      </c>
+      <c r="J33" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="17">
-        <v>1</v>
-      </c>
-      <c r="H21" s="17">
-        <v>1</v>
-      </c>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
-      <c r="J21" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0.855366</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0.852386</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0.86333</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0.852549</v>
-      </c>
-      <c r="H22" s="15">
-        <v>0.855646</v>
-      </c>
-      <c r="I22" s="15">
-        <v>0.857462</v>
-      </c>
-      <c r="J22" s="17">
-        <v>0.986191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="14" t="s">
+    </row>
+    <row r="34" ht="28.5" spans="1:10">
+      <c r="A34" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="15">
-        <v>0.241124</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0.199704</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0.204142</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0.230769</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0.252959</v>
-      </c>
-      <c r="I23" s="15">
-        <v>0.221893</v>
-      </c>
-      <c r="J23" s="17">
-        <v>0.405325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0.045098</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0.037255</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0.035294</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0.05098</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0.047059</v>
-      </c>
-      <c r="I24" s="15">
-        <v>0.056863</v>
-      </c>
-      <c r="J24" s="17">
-        <v>0.098039</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="17">
-        <v>0.412605</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0.401261</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0.407143</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0.408824</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0.389916</v>
-      </c>
-      <c r="I25" s="15">
-        <v>0.407143</v>
-      </c>
-      <c r="J25" s="17">
-        <v>0.601261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="14" t="s">
+      <c r="B34" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="15">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0</v>
-      </c>
-      <c r="I26" s="15">
-        <v>0</v>
-      </c>
-      <c r="J26" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="C34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0.780069</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0.792003</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0.813043</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0.795457</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0.783942</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0.794305</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0.944625</v>
+      </c>
+    </row>
+    <row r="35" ht="28.5" spans="1:10">
+      <c r="A35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="15">
-        <v>0.05102</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0.05034</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0.054422</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0.046259</v>
-      </c>
-      <c r="H27" s="15">
-        <v>0.044218</v>
-      </c>
-      <c r="I27" s="15">
-        <v>0.042177</v>
-      </c>
-      <c r="J27" s="17">
-        <v>0.272109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="15">
-        <v>0.195021</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0.228216</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0.190871</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0.201245</v>
-      </c>
-      <c r="H28" s="15">
-        <v>0.182573</v>
-      </c>
-      <c r="I28" s="15">
-        <v>0.195021</v>
-      </c>
-      <c r="J28" s="17">
-        <v>0.443983</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0.214395</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0.200613</v>
-      </c>
-      <c r="F29" s="15">
-        <v>0.212864</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0.183767</v>
-      </c>
-      <c r="H29" s="15">
-        <v>0.209801</v>
-      </c>
-      <c r="I29" s="17">
-        <v>0.214395</v>
-      </c>
-      <c r="J29" s="17">
-        <v>0.479326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="15">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17">
-        <v>0.016949</v>
-      </c>
-      <c r="I30" s="15">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0.186441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="15">
-        <v>0.372549</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0.372549</v>
-      </c>
-      <c r="F31" s="17">
-        <v>0.441176</v>
-      </c>
-      <c r="G31" s="15">
-        <v>0.372549</v>
-      </c>
-      <c r="H31" s="15">
-        <v>0.372549</v>
-      </c>
-      <c r="I31" s="15">
-        <v>0.382353</v>
-      </c>
-      <c r="J31" s="17">
-        <v>0.441176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="15">
-        <v>0.769231</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0.923077</v>
-      </c>
-      <c r="F32" s="15">
-        <v>0.846154</v>
-      </c>
-      <c r="G32" s="15">
-        <v>0.615385</v>
-      </c>
-      <c r="H32" s="17">
-        <v>1</v>
-      </c>
-      <c r="I32" s="15">
-        <v>0.923077</v>
-      </c>
-      <c r="J32" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0.780069</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0.792003</v>
-      </c>
-      <c r="F33" s="17">
-        <v>0.813043</v>
-      </c>
-      <c r="G33" s="15">
-        <v>0.795457</v>
-      </c>
-      <c r="H33" s="15">
-        <v>0.783942</v>
-      </c>
-      <c r="I33" s="15">
-        <v>0.794305</v>
-      </c>
-      <c r="J33" s="17">
-        <v>0.944625</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5">
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="4:11">
-      <c r="D42" s="1"/>
-      <c r="E42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F42">
-        <v>0.66</v>
-      </c>
-      <c r="G42">
-        <v>0.75</v>
-      </c>
-      <c r="H42">
-        <v>0.9</v>
-      </c>
-      <c r="I42">
-        <v>0.95</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7">
-      <c r="D43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
+      <c r="C35" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11">
+      <c r="D43" s="20"/>
+      <c r="E43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="4:11">
       <c r="D44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="E44" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0.66</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="H44" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="I44" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="J44" s="24">
+        <v>1</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="4:11">
       <c r="D45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="4:11">
-      <c r="D49" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0.748251</v>
+      </c>
+      <c r="F45" s="16">
+        <v>0.747102</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0.75023</v>
+      </c>
+      <c r="H45" s="16">
+        <v>0.748169</v>
+      </c>
+      <c r="I45" s="16">
+        <v>0.749227</v>
+      </c>
+      <c r="J45" s="16">
+        <v>0.749108</v>
+      </c>
+      <c r="K45" s="16">
+        <v>0.886399</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11">
+      <c r="D46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0.564556</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0.568518</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0.58229</v>
+      </c>
+      <c r="H46" s="16">
+        <v>0.571348</v>
+      </c>
+      <c r="I46" s="16">
+        <v>0.563109</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0.571222</v>
+      </c>
+      <c r="K46" s="16">
+        <v>0.740519</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10">
+      <c r="E49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11">
+      <c r="D50" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="25">
+        <v>0.66</v>
+      </c>
+      <c r="G50" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="H50" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="I50" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="J50" s="25">
+        <v>1</v>
+      </c>
+      <c r="K50" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" ht="42.75" spans="4:11">
+      <c r="D51" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="26">
+        <v>0.855269</v>
+      </c>
+      <c r="F51" s="26">
+        <v>0.852361</v>
+      </c>
+      <c r="G51" s="26">
+        <v>0.863271</v>
+      </c>
+      <c r="H51" s="26">
+        <v>0.852477</v>
+      </c>
+      <c r="I51" s="26">
+        <v>0.855618</v>
+      </c>
+      <c r="J51" s="26">
+        <v>0.857409</v>
+      </c>
+      <c r="K51" s="26">
+        <v>0.986113</v>
+      </c>
+    </row>
+    <row r="52" ht="57" spans="4:11">
+      <c r="D52" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="26">
+        <v>0.775755</v>
+      </c>
+      <c r="F52" s="26">
+        <v>0.787753</v>
+      </c>
+      <c r="G52" s="26">
+        <v>0.809164</v>
+      </c>
+      <c r="H52" s="26">
+        <v>0.790753</v>
+      </c>
+      <c r="I52" s="26">
+        <v>0.779892</v>
+      </c>
+      <c r="J52" s="26">
+        <v>0.790132</v>
+      </c>
+      <c r="K52" s="26">
+        <v>0.939388</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11">
+      <c r="D53" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="26">
+        <v>0.679212</v>
+      </c>
+      <c r="F53" s="26">
+        <v>0.679197</v>
+      </c>
+      <c r="G53" s="26">
+        <v>0.677306</v>
+      </c>
+      <c r="H53" s="26">
+        <v>0.680878</v>
+      </c>
+      <c r="I53" s="26">
+        <v>0.680592</v>
+      </c>
+      <c r="J53" s="26">
+        <v>0.679242</v>
+      </c>
+      <c r="K53" s="26">
+        <v>0.822071</v>
+      </c>
+    </row>
+    <row r="54" ht="28.5" spans="4:11">
+      <c r="D54" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="26">
+        <v>0.327263</v>
+      </c>
+      <c r="F54" s="26">
+        <v>0.310731</v>
+      </c>
+      <c r="G54" s="26">
+        <v>0.315214</v>
+      </c>
+      <c r="H54" s="26">
+        <v>0.32362</v>
+      </c>
+      <c r="I54" s="26">
+        <v>0.314654</v>
+      </c>
+      <c r="J54" s="26">
+        <v>0.321659</v>
+      </c>
+      <c r="K54" s="26">
+        <v>0.491734</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11">
+      <c r="D55" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="26">
+        <v>0.115991</v>
+      </c>
+      <c r="F55" s="26">
+        <v>0.118243</v>
+      </c>
+      <c r="G55" s="26">
+        <v>0.116742</v>
+      </c>
+      <c r="H55" s="26">
+        <v>0.106982</v>
+      </c>
+      <c r="I55" s="26">
+        <v>0.109234</v>
+      </c>
+      <c r="J55" s="26">
+        <v>0.111111</v>
+      </c>
+      <c r="K55" s="26">
+        <v>0.352102</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10">
+      <c r="E62" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11">
+      <c r="D63" s="22"/>
+      <c r="E63" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F63" s="22">
+        <v>0.66</v>
+      </c>
+      <c r="G63" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="H63" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="I63" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="J63" s="22">
+        <v>1</v>
+      </c>
+      <c r="K63" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11">
+      <c r="D64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F49" s="23">
-        <v>0.66</v>
-      </c>
-      <c r="G49" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="H49" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="I49" s="22">
-        <v>0.95</v>
-      </c>
-      <c r="J49" s="23">
-        <v>1</v>
-      </c>
-      <c r="K49" s="30" t="s">
+      <c r="E64" s="16">
+        <v>0.793069</v>
+      </c>
+      <c r="F64" s="16">
+        <v>0.792692</v>
+      </c>
+      <c r="G64" s="16">
+        <v>0.802036</v>
+      </c>
+      <c r="H64" s="16">
+        <v>0.79219</v>
+      </c>
+      <c r="I64" s="16">
+        <v>0.791842</v>
+      </c>
+      <c r="J64" s="16">
+        <v>0.794436</v>
+      </c>
+      <c r="K64" s="16">
+        <v>0.93218</v>
+      </c>
+    </row>
+    <row r="65" ht="28.5" spans="4:11">
+      <c r="D65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="16">
+        <v>0.770205</v>
+      </c>
+      <c r="F65" s="16">
+        <v>0.767438</v>
+      </c>
+      <c r="G65" s="16">
+        <v>0.770642</v>
+      </c>
+      <c r="H65" s="16">
+        <v>0.776176</v>
+      </c>
+      <c r="I65" s="16">
+        <v>0.775302</v>
+      </c>
+      <c r="J65" s="16">
+        <v>0.774428</v>
+      </c>
+      <c r="K65" s="16">
+        <v>0.878258</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11">
+      <c r="D66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="16">
+        <v>0.707768</v>
+      </c>
+      <c r="F66" s="16">
+        <v>0.709581</v>
+      </c>
+      <c r="G66" s="16">
+        <v>0.688957</v>
+      </c>
+      <c r="H66" s="16">
+        <v>0.709706</v>
+      </c>
+      <c r="I66" s="16">
+        <v>0.701956</v>
+      </c>
+      <c r="J66" s="16">
+        <v>0.709331</v>
+      </c>
+      <c r="K66" s="16">
+        <v>0.802075</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11">
+      <c r="D67" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" ht="47.25" spans="4:11">
-      <c r="D50" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J50" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K50" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" ht="63" spans="4:11">
-      <c r="D51" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="K51" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="4:11">
-      <c r="D52" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J52" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="K52" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" ht="31.5" spans="4:11">
-      <c r="D53" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J53" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K53" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="4:11">
-      <c r="D54" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J54" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="4:11">
-      <c r="D56" s="19"/>
-      <c r="E56" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="F56" s="19">
-        <v>0.66</v>
-      </c>
-      <c r="G56" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="H56" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="I56" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="J56" s="19">
-        <v>1</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="4:11">
-      <c r="D57" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="I57" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K57" s="25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="4:11">
-      <c r="D58" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="K58" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="4:11">
-      <c r="D59" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="I59" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="K59" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="4:11">
-      <c r="D60" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="K60" s="25" t="s">
-        <v>110</v>
+      <c r="E67" s="16">
+        <v>0.56614</v>
+      </c>
+      <c r="F67" s="16">
+        <v>0.564654</v>
+      </c>
+      <c r="G67" s="16">
+        <v>0.571115</v>
+      </c>
+      <c r="H67" s="16">
+        <v>0.569047</v>
+      </c>
+      <c r="I67" s="16">
+        <v>0.57357</v>
+      </c>
+      <c r="J67" s="16">
+        <v>0.567691</v>
+      </c>
+      <c r="K67" s="16">
+        <v>0.750816</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="J14:J15"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2791,372 +2949,368 @@
       <selection activeCell="L6" sqref="L6:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
       <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" ht="28.5" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="4"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="J2"/>
       <c r="L2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" ht="28.5" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" ht="47.25" spans="1:13">
+    <row r="4" ht="42.75" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" ht="47.25" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" ht="63" spans="1:13">
+    <row r="6" ht="57" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="47.25" customHeight="1" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" ht="31.5" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="57" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" ht="63" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" ht="47.25" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" ht="31.5" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" ht="63" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="57" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" ht="31.5" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" ht="31.5" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" ht="31.5" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3182,45 +3336,40 @@
       <selection activeCell="L5" sqref="L5:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1"/>
       <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1"/>
       <c r="L1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="28.5" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="4"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J2" s="4"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3228,325 +3377,325 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" ht="47.25" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" ht="47.25" spans="1:13">
+    <row r="5" ht="42.75" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5">
         <v>1000000</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" ht="63" spans="1:13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="31.5" customHeight="1" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" ht="31.5" spans="1:13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" ht="57" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" ht="63" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" ht="31.5" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" ht="31.5" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" ht="63" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" ht="57" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" ht="31.5" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" ht="31.5" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" ht="31.5" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3573,45 +3722,40 @@
       <selection activeCell="L5" sqref="L5:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1"/>
       <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1"/>
       <c r="L1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="28.5" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3619,319 +3763,319 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" ht="47.25" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" ht="31.5" customHeight="1" spans="1:13">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5">
         <v>1000000</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" ht="63" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:13">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="47.25" customHeight="1" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" ht="31.5" spans="1:13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" ht="47.25" customHeight="1" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" ht="31.5" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" ht="63" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" ht="31.5" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" ht="31.5" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" ht="31.5" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" ht="31.5" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3960,44 +4104,39 @@
       <selection activeCell="L5" sqref="L5:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1"/>
       <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1"/>
       <c r="L1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="28.5" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="4"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J2" s="4"/>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -4006,331 +4145,331 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" ht="47.25" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" ht="31.5" customHeight="1" spans="1:13">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5">
         <v>1000000</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" ht="63" spans="1:13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:13">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" ht="57" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" ht="63" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" ht="47.25" spans="1:10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" ht="42.75" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" ht="63" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" ht="57" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" ht="31.5" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" ht="63" spans="1:4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" ht="57" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" ht="31.5" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" ht="31.5" spans="1:4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" ht="31.5" spans="1:4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" ht="31.5" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4356,7 +4495,7 @@
       <selection activeCell="L5" sqref="L5:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="22.2" customWidth="1"/>
     <col min="9" max="9" width="12.5"/>
@@ -4366,38 +4505,33 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1"/>
       <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1"/>
       <c r="L1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="28.5" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -4406,328 +4540,326 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3"/>
+        <v>28</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" ht="47.25" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="8"/>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" ht="47.25" spans="1:13">
+    <row r="5" ht="42.75" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5">
         <v>1000000</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" ht="63" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5">
         <v>1000000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" ht="31.5" customHeight="1" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" ht="57" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" ht="63" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" ht="31.5" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" ht="63" spans="1:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" ht="57" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" ht="31.5" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" ht="31.5" spans="1:4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" ht="31.5" spans="1:4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4750,49 +4882,44 @@
   <sheetPr/>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L5" sqref="L5:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1"/>
       <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1"/>
       <c r="L1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="28.5" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4800,327 +4927,327 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" ht="47.25" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" ht="47.25" spans="1:13">
+    <row r="5" ht="42.75" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5">
         <v>1000000</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" ht="63" spans="1:13">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" ht="31.5" customHeight="1" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" ht="31.5" spans="1:13">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" ht="57" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" ht="63" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" ht="31.5" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" ht="31.5" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" ht="63" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" ht="57" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" ht="31.5" spans="1:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" ht="31.5" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" ht="31.5" spans="1:4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" ht="31.5" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5142,11 +5269,11 @@
   <sheetPr/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="9.3"/>
   </cols>
@@ -5156,11 +5283,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="28.5" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4"/>
       <c r="H2" t="s">
@@ -5172,228 +5299,226 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
         <v>3</v>
       </c>
-      <c r="L3"/>
       <c r="N3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="47.25" customHeight="1" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" ht="47.25" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="1:15">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="63" customHeight="1" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" ht="47.25" spans="1:15">
+    <row r="7" ht="42.75" spans="1:15">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3">
         <v>0.986191</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" ht="63" spans="1:15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" ht="57" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3">
         <v>0.944625</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" ht="47.25" customHeight="1" spans="1:15">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3">
         <v>0.911111</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" ht="31.5" customHeight="1" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3">
         <v>0.884644</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3">
         <v>0.848417</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3">
         <v>0.837335</v>
@@ -5403,7 +5528,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3">
         <v>0.784364</v>
@@ -5411,25 +5536,25 @@
     </row>
     <row r="14" ht="31.5" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
         <v>0.601261</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
+    <row r="15" ht="15.75" customHeight="1" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3">
         <v>0.479326</v>
@@ -5439,75 +5564,75 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3">
         <v>0.443983</v>
       </c>
     </row>
-    <row r="17" ht="63" spans="1:4">
+    <row r="17" ht="57" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3">
         <v>0.441176</v>
       </c>
     </row>
-    <row r="18" ht="31.5" spans="1:4">
+    <row r="18" ht="28.5" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3">
         <v>0.405325</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
+    <row r="19" ht="15.75" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3">
         <v>0.272109</v>
       </c>
     </row>
-    <row r="20" ht="31.5" spans="1:4">
+    <row r="20" ht="28.5" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
         <v>0.186441</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
+    <row r="21" ht="15.75" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3">
         <v>0.098039</v>
       </c>
     </row>
-    <row r="22" ht="31.5" spans="1:4">
+    <row r="22" ht="28.5" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -5515,10 +5640,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -5547,7 +5672,7 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -5561,97 +5686,97 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" ht="47.25" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3">
         <v>66639</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3">
         <v>59119</v>
       </c>
     </row>
-    <row r="6" ht="47.25" spans="1:7">
+    <row r="6" ht="42.75" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>42990</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3">
         <v>28709</v>
       </c>
     </row>
-    <row r="7" ht="63" spans="1:7">
+    <row r="7" ht="57" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <v>9668</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3">
         <v>14996</v>
       </c>
     </row>
-    <row r="8" ht="31.5" spans="1:7">
+    <row r="8" ht="28.5" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>3569</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3">
         <v>12586</v>
@@ -5660,16 +5785,16 @@
     <row r="9" ht="31.5" customHeight="1" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>2664</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3">
         <v>6805</v>
@@ -5677,10 +5802,10 @@
     </row>
     <row r="10" spans="5:7">
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G10" s="3">
         <v>2248</v>
@@ -5689,16 +5814,16 @@
     <row r="11" spans="5:7">
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3">
         <v>1005</v>
       </c>
     </row>
-    <row r="12" ht="31.5" spans="5:7">
+    <row r="12" ht="28.5" spans="5:7">
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3">
         <v>62</v>
